--- a/data/微信服务群.xlsx
+++ b/data/微信服务群.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panda/Desktop/github.nosync/ticketing-website/backend/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panda/Desktop/github/PyTemplate/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA232AB2-D669-B24F-8548-E48339024E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C7FDA0-B42B-0A45-9377-87542808BD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="700" windowWidth="18880" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="700" windowWidth="18880" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,17 +32,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>无锡公司-注册群</t>
-  </si>
-  <si>
     <t>测试2群</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>太仓公司安装注册群</t>
-  </si>
-  <si>
-    <t>昆山一组（苏州）</t>
+    <t>Panda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -417,7 +420,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -442,12 +445,12 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1">
